--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7737172-E230-4763-92F2-8519E47F7AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78EEF40-7C3F-42A2-95FD-739E5D13D14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -110,12 +110,6 @@
     <t>Moelis</t>
   </si>
   <si>
-    <t> Los Angeles</t>
-  </si>
-  <si>
-    <t> Investment Banking Summer Analyst</t>
-  </si>
-  <si>
     <t>Morgan Stanley</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t> M&amp;A Summer Analyst</t>
-  </si>
-  <si>
     <t>Deloitte</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t> Acquisitions Summer Analyst</t>
-  </si>
-  <si>
     <t>Headwater Projects</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t>Calgary</t>
   </si>
   <si>
-    <t> Summer Intern</t>
-  </si>
-  <si>
     <t>Leith Wheeler Investment Counsel</t>
   </si>
   <si>
@@ -288,6 +273,15 @@
   </si>
   <si>
     <t>Turtle Holdings Limited</t>
+  </si>
+  <si>
+    <t>Acquisitions Summer Analyst</t>
+  </si>
+  <si>
+    <t>M&amp;A Summer Analyst</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
@@ -692,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -701,7 +695,7 @@
     <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -764,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -782,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -800,13 +794,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -818,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -833,16 +827,16 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -857,10 +851,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -875,10 +869,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -896,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -908,13 +902,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -926,13 +920,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
@@ -944,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
@@ -965,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -977,16 +971,16 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
@@ -995,16 +989,16 @@
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
@@ -1013,16 +1007,16 @@
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -1031,16 +1025,16 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
@@ -1049,16 +1043,16 @@
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -1067,16 +1061,16 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
@@ -1085,16 +1079,16 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
@@ -1103,16 +1097,16 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -1121,16 +1115,16 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1139,16 +1133,16 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
@@ -1157,16 +1151,16 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -1175,16 +1169,16 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alroa\Desktop\WPRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78EEF40-7C3F-42A2-95FD-739E5D13D14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABD573E-5C07-4AAE-9E78-C88AE482F3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="internships2019" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Amy Zeng</t>
   </si>
   <si>
-    <t>Kameel ladak</t>
-  </si>
-  <si>
     <t>Piero Ferrando</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>Wealth Management Intern</t>
   </si>
   <si>
-    <t>Investment Baking Summer Analyst</t>
-  </si>
-  <si>
     <t>Scotiabank</t>
   </si>
   <si>
@@ -282,6 +276,9 @@
   </si>
   <si>
     <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Kameel Ladak</t>
   </si>
 </sst>
 </file>
@@ -687,19 +684,19 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -717,7 +714,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -735,15 +732,15 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -753,15 +750,15 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -771,15 +768,15 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -789,15 +786,15 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -807,33 +804,33 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -843,7 +840,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -851,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -861,7 +858,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -869,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
@@ -879,7 +876,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -890,14 +887,14 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -915,7 +912,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -933,7 +930,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -951,7 +948,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -969,15 +966,15 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>31</v>
@@ -987,12 +984,12 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>30</v>
@@ -1005,33 +1002,33 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1041,30 +1038,30 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -1077,15 +1074,15 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>31</v>
@@ -1095,15 +1092,15 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>31</v>
@@ -1113,15 +1110,15 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>31</v>
@@ -1131,15 +1128,15 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>31</v>
@@ -1149,15 +1146,15 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>27</v>
@@ -1167,15 +1164,15 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1185,7 +1182,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1193,7 +1190,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/src/data/careers.xlsx
+++ b/src/data/careers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alroa\Desktop\WPRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABD573E-5C07-4AAE-9E78-C88AE482F3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD923C6-1018-4D15-9AC6-8928C7595524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="internships2019" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,9 +56,6 @@
     <t>Victor Shmulevich</t>
   </si>
   <si>
-    <t>Investment Banking Analyst</t>
-  </si>
-  <si>
     <t>Momentum Cyber</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>David Buzza</t>
   </si>
   <si>
-    <t>Joesph Cashore</t>
-  </si>
-  <si>
     <t>Tiffany Griesbach</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Ayush Paliwal</t>
   </si>
   <si>
-    <t>Alexandria Li</t>
-  </si>
-  <si>
     <t>Jason Van</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>Investment Banking Summer Analyst</t>
   </si>
   <si>
-    <t>Moelis</t>
-  </si>
-  <si>
     <t>Morgan Stanley</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Parm Sidhu</t>
   </si>
   <si>
-    <t>Padriac Lau</t>
-  </si>
-  <si>
     <t>Ali Cervienka</t>
   </si>
   <si>
@@ -161,9 +146,6 @@
     <t>Felicity Wang</t>
   </si>
   <si>
-    <t>Miguel Valaro</t>
-  </si>
-  <si>
     <t>Software Development Engineer Intern</t>
   </si>
   <si>
@@ -279,6 +261,24 @@
   </si>
   <si>
     <t>Kameel Ladak</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Joseph Cashore</t>
+  </si>
+  <si>
+    <t>Moelis &amp; Company</t>
+  </si>
+  <si>
+    <t>Alexandra Li</t>
+  </si>
+  <si>
+    <t>Padraic Lau</t>
+  </si>
+  <si>
+    <t>Miguel Valarao</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,466 +719,466 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1"/>
     </row>
